--- a/biology/Médecine/Ion_Lazarevitch_Degen/Ion_Lazarevitch_Degen.xlsx
+++ b/biology/Médecine/Ion_Lazarevitch_Degen/Ion_Lazarevitch_Degen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ion Lazarevitch Degen (en russe : Ион Лазаревич Деген), né le 4 juin 1925 à Mohyliv-Podilskyï (République socialiste soviétique d'Ukraine) et mort le 28 avril 2017 à Givatayim (Israël) [réf. nécessaire], est un tankiste, médecin et écrivain soviétique puis israélien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ion Lazarevitch Degen (en russe : Ион Лазаревич Деген), né le 4 juin 1925 à Mohyliv-Podilskyï (République socialiste soviétique d'Ukraine) et mort le 28 avril 2017 à Givatayim (Israël) [réf. nécessaire], est un tankiste, médecin et écrivain soviétique puis israélien.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seconde Guerre mondiale
-Lieutenant dans l'Armée rouge, Ion Degen a notamment détruit 12 chars allemands (dont un Panzerkampfwagen VI Tiger et huit Panzerkampfwagen V Panther) et quatre canons automoteurs (dont un Jagdpanzer Elefant).
-Médecin et écrivain
-Diplômé, avec mention très bien, de l'Université d'État de médecine de Bucovine en 1951, il travaille jusqu'en 1954 comme traumatologue orthopédiste à l'Institut orthopédique de Kiev. Plus tard, jusqu'en 1977, il a travaillé comme traumatologue orthopédiste dans les hôpitaux de Kiev.  
-Traumatologue, Ion Degen pratique largement l'hypnose dans sa pratique médicale.[2] En 1977, il part pour Israël, où il continue à travailler comme chirurgien orthopédiste pendant plus de vingt ans.
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieutenant dans l'Armée rouge, Ion Degen a notamment détruit 12 chars allemands (dont un Panzerkampfwagen VI Tiger et huit Panzerkampfwagen V Panther) et quatre canons automoteurs (dont un Jagdpanzer Elefant).
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin et écrivain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé, avec mention très bien, de l'Université d'État de médecine de Bucovine en 1951, il travaille jusqu'en 1954 comme traumatologue orthopédiste à l'Institut orthopédique de Kiev. Plus tard, jusqu'en 1977, il a travaillé comme traumatologue orthopédiste dans les hôpitaux de Kiev.  
+Traumatologue, Ion Degen pratique largement l'hypnose dans sa pratique médicale. En 1977, il part pour Israël, où il continue à travailler comme chirurgien orthopédiste pendant plus de vingt ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ion_Lazarevitch_Degen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ion_Lazarevitch_Degen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>ordre du Drapeau rouge
 ordre de la Guerre patriotique de 1er classe
@@ -559,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ion_Lazarevitch_Degen</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ion_Lazarevitch_Degen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(ru) О. Юнаков, Архитектор Иосиф Каракис, Алмаз,‎ 2016 (ISBN 978-1-68082-000-3)</t>
         </is>
